--- a/data/excel/train.xlsx
+++ b/data/excel/train.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Виктор\Documents\GitHub\MGC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Виктор\Documents\GitHub\MGC\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DB1E8A-379D-41E7-8136-573ADD893D2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E73351-45A7-42EF-A441-C83923A60E25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -89,7 +89,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -395,7 +395,7 @@
   <dimension ref="A1:B401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
